--- a/changed_student_3.xlsx
+++ b/changed_student_3.xlsx
@@ -508,6 +508,16 @@
           <t>Адрес</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>сдвиг почты</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>сдвиг адреса</t>
+        </is>
+      </c>
       <c r="AMC1" s="8" t="n"/>
       <c r="AMD1" s="8" t="n"/>
       <c r="AME1" s="8" t="n"/>
